--- a/data/trans_orig/P20D1_R_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_R_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4800</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1368</v>
+        <v>1653</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9533</v>
+        <v>9405</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2946256183954395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08397703158532858</v>
+        <v>0.1014749443537486</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5851079324150059</v>
+        <v>0.5772226040769319</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>4144</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1860</v>
+        <v>1985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6842</v>
+        <v>6811</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4675550717770855</v>
+        <v>0.4675550717770856</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.209832845223656</v>
+        <v>0.223928160231137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7718471940841906</v>
+        <v>0.7683789803268505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>8945</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4685</v>
+        <v>4673</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13939</v>
+        <v>14001</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3555556687193865</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1862439461799721</v>
+        <v>0.1857557131613627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5540669290524545</v>
+        <v>0.5565283002159822</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6760</v>
+        <v>6888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14925</v>
+        <v>14640</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7053743816045605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4148920675849923</v>
+        <v>0.4227773959230678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9160229684146709</v>
+        <v>0.8985250556462515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4720</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2022</v>
+        <v>2053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7004</v>
+        <v>6879</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5324449282229144</v>
+        <v>0.5324449282229147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2281528059158094</v>
+        <v>0.2316210196731494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7901671547763441</v>
+        <v>0.7760718397688631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>16212</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11218</v>
+        <v>11156</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20472</v>
+        <v>20484</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6444443312806135</v>
+        <v>0.6444443312806136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4459330709475457</v>
+        <v>0.4434716997840178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8137560538200279</v>
+        <v>0.8142442868386374</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3943</v>
+        <v>3460</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0459727269467473</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2625574716000564</v>
+        <v>0.230422803410037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -979,19 +979,19 @@
         <v>6452</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3469</v>
+        <v>3598</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9227</v>
+        <v>9397</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3986945458431869</v>
+        <v>0.3986945458431868</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.214346584318275</v>
+        <v>0.2223501307248101</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5701875273152683</v>
+        <v>0.5806803301829649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1000,19 +1000,19 @@
         <v>7142</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3613</v>
+        <v>4106</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11144</v>
+        <v>11753</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2289264104021559</v>
+        <v>0.2289264104021558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1158159181158971</v>
+        <v>0.1316050404716772</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3571883935281723</v>
+        <v>0.3767210951206894</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1029,16 @@
         <v>14326</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11073</v>
+        <v>11556</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>15016</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9540272730532527</v>
+        <v>0.9540272730532529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7374425283999433</v>
+        <v>0.7695771965899627</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>9730</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6955</v>
+        <v>6785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12713</v>
+        <v>12584</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6013054541568132</v>
+        <v>0.6013054541568131</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4298124726847316</v>
+        <v>0.4193196698170351</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7856534156817248</v>
+        <v>0.7776498692751904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -1071,19 +1071,19 @@
         <v>24056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20054</v>
+        <v>19445</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27585</v>
+        <v>27092</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7710735895978442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6428116064718279</v>
+        <v>0.6232789048793109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8841840818841029</v>
+        <v>0.8683949595283229</v>
       </c>
     </row>
     <row r="9">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3379</v>
+        <v>3449</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05789498837126211</v>
+        <v>0.0578949883712621</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2011568122826118</v>
+        <v>0.2053425156688041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1196,19 +1196,19 @@
         <v>8851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5261</v>
+        <v>5407</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11960</v>
+        <v>12222</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5616340683105299</v>
+        <v>0.56163406831053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3338578727868325</v>
+        <v>0.3431300320521996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7589431082485891</v>
+        <v>0.7755305615442946</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1217,19 +1217,19 @@
         <v>9823</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6157</v>
+        <v>5837</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15458</v>
+        <v>15282</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3017257565260114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1891229182907695</v>
+        <v>0.1792882802489439</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4748191282718331</v>
+        <v>0.469404608170435</v>
       </c>
     </row>
     <row r="11">
@@ -1246,16 +1246,16 @@
         <v>15825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13419</v>
+        <v>13349</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>16798</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9421050116287381</v>
+        <v>0.9421050116287378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.798843187717389</v>
+        <v>0.7946574843311935</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>6908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3799</v>
+        <v>3537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10498</v>
+        <v>10352</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.43836593168947</v>
+        <v>0.4383659316894701</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2410568917514107</v>
+        <v>0.2244694384557055</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6661421272131676</v>
+        <v>0.6568699679478005</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1288,19 +1288,19 @@
         <v>22733</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17098</v>
+        <v>17274</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26399</v>
+        <v>26719</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6982742434739886</v>
+        <v>0.6982742434739887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5251808717281665</v>
+        <v>0.5305953918295646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8108770817092303</v>
+        <v>0.8207117197510562</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6947</v>
+        <v>6780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1253479836745077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02751382243528384</v>
+        <v>0.02158850558453493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3841256575115781</v>
+        <v>0.3749317175861342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1413,19 +1413,19 @@
         <v>9581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13431</v>
+        <v>13617</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5982886576154594</v>
+        <v>0.5982886576154595</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3583900461117972</v>
+        <v>0.358438161439129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8387290296558186</v>
+        <v>0.8502876091341015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1434,19 +1434,19 @@
         <v>11847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6672</v>
+        <v>6577</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19481</v>
+        <v>18853</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3474624489314869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1956694662808581</v>
+        <v>0.1928988522561033</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5713485928129983</v>
+        <v>0.5529345670290798</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>15817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11137</v>
+        <v>11304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17586</v>
+        <v>17694</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8746520163254924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6158743424884223</v>
+        <v>0.6250682824138649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9724861775647161</v>
+        <v>0.978411494415465</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1484,19 +1484,19 @@
         <v>6433</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2583</v>
+        <v>2397</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10275</v>
+        <v>10274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4017113423845407</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1612709703441814</v>
+        <v>0.1497123908658987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6416099538882021</v>
+        <v>0.641561838560871</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -1505,19 +1505,19 @@
         <v>22250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14616</v>
+        <v>15244</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27425</v>
+        <v>27520</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6525375510685133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4286514071870018</v>
+        <v>0.4470654329709199</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8043305337191419</v>
+        <v>0.8071011477438965</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>8730</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4850</v>
+        <v>4547</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15836</v>
+        <v>15068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1318916197974698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07327975728297825</v>
+        <v>0.06869791257892692</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2392433754672622</v>
+        <v>0.2276423087725566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1630,19 +1630,19 @@
         <v>29027</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23053</v>
+        <v>22786</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36840</v>
+        <v>36491</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5108817946194919</v>
+        <v>0.5108817946194921</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4057408245145686</v>
+        <v>0.4010387310565193</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6483891747095987</v>
+        <v>0.6422444611311556</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -1651,19 +1651,19 @@
         <v>37757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28400</v>
+        <v>28659</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48046</v>
+        <v>48623</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3069488380643398</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2308808132027053</v>
+        <v>0.2329814574099188</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3905919229130354</v>
+        <v>0.395280514540182</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>57460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50354</v>
+        <v>51122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61340</v>
+        <v>61643</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.86810838020253</v>
+        <v>0.8681083802025302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7607566245327382</v>
+        <v>0.7723576912274426</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9267202427170217</v>
+        <v>0.9313020874210729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1701,19 +1701,19 @@
         <v>27791</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19978</v>
+        <v>20327</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33765</v>
+        <v>34032</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4891182053805077</v>
+        <v>0.4891182053805078</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3516108252904011</v>
+        <v>0.3577555388688448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5942591754854313</v>
+        <v>0.5989612689434808</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -1722,19 +1722,19 @@
         <v>85252</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74963</v>
+        <v>74386</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94609</v>
+        <v>94350</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.69305116193566</v>
+        <v>0.6930511619356601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6094080770869645</v>
+        <v>0.604719485459818</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7691191867972946</v>
+        <v>0.767018542590081</v>
       </c>
     </row>
     <row r="18">
